--- a/player_data_template.xlsx
+++ b/player_data_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin LH Chow\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8446D44A-BA58-429C-B851-86F91F5E747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB63E7CB-664F-40A6-989E-3BB5C318EA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{14EE3E1B-CF51-4AA7-B59F-FDD6EF740BED}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Dropdown" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Report Input Template'!$A$1:$AT$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Report Input Template'!$A$1:$AV$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t xml:space="preserve">Feb Height </t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Height Start Month</t>
+  </si>
+  <si>
+    <t>Height End Month</t>
   </si>
 </sst>
 </file>
@@ -1246,13 +1252,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1938B87-35BE-4356-BE32-94A40AE93775}">
-  <dimension ref="A1:AT19"/>
+  <dimension ref="A1:AV19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD18"/>
+      <selection pane="bottomRight" activeCell="AU1" sqref="AU1:AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1278,7 +1284,7 @@
     <col min="33" max="33" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1417,8 +1423,14 @@
       <c r="AT1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
@@ -1432,7 +1444,7 @@
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
@@ -1461,7 +1473,7 @@
       <c r="AQ3" s="7"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
@@ -1490,7 +1502,7 @@
       <c r="AQ4" s="7"/>
       <c r="AT4" s="7"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
@@ -1519,7 +1531,7 @@
       <c r="AQ5" s="7"/>
       <c r="AT5" s="7"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
@@ -1548,7 +1560,7 @@
       <c r="AQ6" s="7"/>
       <c r="AT6" s="7"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
@@ -1577,7 +1589,7 @@
       <c r="AQ7" s="7"/>
       <c r="AT7" s="7"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -1606,7 +1618,7 @@
       <c r="AQ8" s="7"/>
       <c r="AT8" s="7"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -1635,7 +1647,7 @@
       <c r="AQ9" s="7"/>
       <c r="AT9" s="7"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -1664,7 +1676,7 @@
       <c r="AQ10" s="7"/>
       <c r="AT10" s="7"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -1693,7 +1705,7 @@
       <c r="AQ11" s="7"/>
       <c r="AT11" s="7"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -1722,7 +1734,7 @@
       <c r="AQ12" s="7"/>
       <c r="AT12" s="7"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -1751,7 +1763,7 @@
       <c r="AQ13" s="7"/>
       <c r="AT13" s="7"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -1780,7 +1792,7 @@
       <c r="AQ14" s="7"/>
       <c r="AT14" s="7"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1809,7 +1821,7 @@
       <c r="AQ15" s="7"/>
       <c r="AT15" s="7"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1911,11 +1923,7 @@
       <c r="AT19" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AT1" xr:uid="{B1938B87-35BE-4356-BE32-94A40AE93775}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT18">
-      <sortCondition descending="1" ref="G1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AV1" xr:uid="{B1938B87-35BE-4356-BE32-94A40AE93775}"/>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:W1048576" xr:uid="{E968EE07-77B2-43A8-A7F4-8390E9524082}">
       <formula1>1</formula1>

--- a/player_data_template.xlsx
+++ b/player_data_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin LH Chow\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB63E7CB-664F-40A6-989E-3BB5C318EA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8E471D06-37EC-4A81-840F-CF43F9C31A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{14EE3E1B-CF51-4AA7-B59F-FDD6EF740BED}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t xml:space="preserve">Feb Height </t>
   </si>
@@ -321,6 +321,42 @@
   </si>
   <si>
     <t>Height End Month</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -330,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +529,12 @@
       <b/>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1258,7 +1300,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU1" sqref="AU1:AV1"/>
+      <selection pane="bottomRight" activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1937,7 +1979,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8ED1CC1F-5139-438E-8D1C-85694F2EF748}">
           <x14:formula1>
             <xm:f>Dropdown!$C:$C</xm:f>
@@ -1962,6 +2004,12 @@
           </x14:formula1>
           <xm:sqref>X2:Y1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1F293CB-FD33-4F8C-B741-F1CC675BAEDB}">
+          <x14:formula1>
+            <xm:f>Dropdown!$E$1:$E$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>AU2:AV1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1970,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842C8963-C194-43F2-A819-4E5E96E8D7E7}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D5"/>
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1982,7 +2030,7 @@
     <col min="2" max="2" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1995,8 +2043,11 @@
       <c r="D1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2009,8 +2060,11 @@
       <c r="D2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2023,8 +2077,11 @@
       <c r="D3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -2037,8 +2094,11 @@
       <c r="D4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2051,8 +2111,11 @@
       <c r="D5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -2062,56 +2125,77 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2119,7 +2203,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2127,7 +2211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2135,7 +2219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2188,6 +2272,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/player_data_template.xlsx
+++ b/player_data_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin LH Chow\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8E471D06-37EC-4A81-840F-CF43F9C31A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE14A1-6DC6-4094-846C-BA1B06A35FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{14EE3E1B-CF51-4AA7-B59F-FDD6EF740BED}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8170" xr2:uid="{14EE3E1B-CF51-4AA7-B59F-FDD6EF740BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Input Template" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
-    <t xml:space="preserve">Feb Height </t>
-  </si>
-  <si>
     <t>Height Year</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Feb Height</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -892,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1297,10 +1297,10 @@
   <dimension ref="A1:AV19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR12" sqref="AR12"/>
+      <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1328,148 +1328,148 @@
   <sheetData>
     <row r="1" spans="1:48" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AJ1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="AU1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV1" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
@@ -2032,242 +2032,242 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
